--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/123/word_level_predictions_123.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G92" s="2" t="b">
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/123/word_level_predictions_123.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G92" s="2" t="b">
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -12046,730 +12046,730 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>12</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>16</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>12</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>17</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>12</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>18</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>12</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>19</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>12</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>20</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>12</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>21</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>12</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>22</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>12</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>23</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>12</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>24</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>12</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>25</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>12</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>26</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>12</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>27</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>12</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>28</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>12</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>29</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
